--- a/biology/Botanique/E.H.L.Krause/E.H.L.Krause.xlsx
+++ b/biology/Botanique/E.H.L.Krause/E.H.L.Krause.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Hans Ludwig Krause, né le 27 juillet 1859 à Stade et mort le 1er juin 1942 à Strelitz, est un botaniste et un entomologiste allemand.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Krause est né à Stade, où son père Karl Ernst Hermann Krause est professeur de lycée depuis 1850. En 1865, il devient directeur de la grande école de la ville de Rostock (de).
-Au lycée de son père, Ernst Krause passe son baccalauréat en mars 1877. À partir d'avril, il étudie la médecine et la botanique à l'Institut médico-chirurgical de l'Université Frédéric-Guillaume de Berlin. En 1878, il devint membre du Pépinière-Corps (de) Franconia[1]. L'Université Frédéric-Guillaume lui décerne le titre de docteur en médecine en mars 1881[2]. Agréé en 1882, il sert d'abord comme médecin-major dans la marine impériale, entre autres à Kiel. En 1893, il rejoint le 30e régiment d'infanterie de l'armée prussienne en tant que médecin de régiment. En 1904, il est mis à la retraite en tant que médecin-chef.
+Au lycée de son père, Ernst Krause passe son baccalauréat en mars 1877. À partir d'avril, il étudie la médecine et la botanique à l'Institut médico-chirurgical de l'Université Frédéric-Guillaume de Berlin. En 1878, il devint membre du Pépinière-Corps (de) Franconia. L'Université Frédéric-Guillaume lui décerne le titre de docteur en médecine en mars 1881. Agréé en 1882, il sert d'abord comme médecin-major dans la marine impériale, entre autres à Kiel. En 1893, il rejoint le 30e régiment d'infanterie de l'armée prussienne en tant que médecin de régiment. En 1904, il est mis à la retraite en tant que médecin-chef.
 Selaginella kraussiana (Sélaginelle de Krause) est une espèce de plante qui lui a été dédiée.
 </t>
         </is>
